--- a/EDA/DF_DV/concentracion de CO2.xlsx
+++ b/EDA/DF_DV/concentracion de CO2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:E346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,3455 +450,5883 @@
           <t>CO2</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Var %</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Subida</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Bajada</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>33543</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>354,95</t>
-        </is>
+      <c r="B2" t="n">
+        <v>354.95</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>33573</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>356,42</t>
-        </is>
+      <c r="B3" t="n">
+        <v>356.42</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4141428370193045</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>356,73</t>
-        </is>
+      <c r="B4" t="n">
+        <v>356.73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.08697603950396093</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>33635</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>356,89</t>
-        </is>
+      <c r="B5" t="n">
+        <v>356.89</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04485184873712633</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>33664</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>357,68</t>
-        </is>
+      <c r="B6" t="n">
+        <v>357.68</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2213567205581635</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>359,01</t>
-        </is>
+      <c r="B7" t="n">
+        <v>359.01</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3718407515097333</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>33725</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>359,69</t>
-        </is>
+      <c r="B8" t="n">
+        <v>359.69</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1894097657446858</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>33756</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>358,85</t>
-        </is>
+      <c r="B9" t="n">
+        <v>358.85</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2335344324279176</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>356,94</t>
-        </is>
+      <c r="B10" t="n">
+        <v>356.94</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.5322558171938163</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>33817</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>353,84</t>
-        </is>
+      <c r="B11" t="n">
+        <v>353.84</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.8684933041967935</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>33848</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>353,01</t>
-        </is>
+      <c r="B12" t="n">
+        <v>353.01</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.2345692968573343</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>354,21</t>
-        </is>
+      <c r="B13" t="n">
+        <v>354.21</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3399337129259772</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>33909</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>355,33</t>
-        </is>
+      <c r="B14" t="n">
+        <v>355.33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3161966065328592</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>33939</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>356,87</t>
-        </is>
+      <c r="B15" t="n">
+        <v>356.87</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4333999380857323</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>358,35</t>
-        </is>
+      <c r="B16" t="n">
+        <v>358.35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4147168436685611</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>34001</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>359,35</t>
-        </is>
+      <c r="B17" t="n">
+        <v>359.35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2790567880563755</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>34029</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>360,16</t>
-        </is>
+      <c r="B18" t="n">
+        <v>360.16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2254069848337314</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>360,85</t>
-        </is>
+      <c r="B19" t="n">
+        <v>360.85</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1915815193247461</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>34090</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>360,76</t>
-        </is>
+      <c r="B20" t="n">
+        <v>360.76</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.02494111126507548</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>359,36</t>
-        </is>
+      <c r="B21" t="n">
+        <v>359.36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.388069630779464</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>357,16</t>
-        </is>
+      <c r="B22" t="n">
+        <v>357.16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.6121994657168228</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>354,32</t>
-        </is>
+      <c r="B23" t="n">
+        <v>354.32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.7951618322320608</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>353,09</t>
-        </is>
+      <c r="B24" t="n">
+        <v>353.09</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.3471438247911518</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>354,65</t>
-        </is>
+      <c r="B25" t="n">
+        <v>354.65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4418137018890267</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>357,4</t>
-        </is>
+      <c r="B26" t="n">
+        <v>357.4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7754123784012412</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>358,84</t>
-        </is>
+      <c r="B27" t="n">
+        <v>358.84</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.402909904868487</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>359,4</t>
-        </is>
+      <c r="B28" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1560584104336238</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>359,71</t>
-        </is>
+      <c r="B29" t="n">
+        <v>359.71</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.08625486922648751</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>360,14</t>
-        </is>
+      <c r="B30" t="n">
+        <v>360.14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1195407411525906</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>361,44</t>
-        </is>
+      <c r="B31" t="n">
+        <v>361.44</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3609707336035939</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>362,07</t>
-        </is>
+      <c r="B32" t="n">
+        <v>362.07</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1743027888446269</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>360,98</t>
-        </is>
+      <c r="B33" t="n">
+        <v>360.98</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.3010467589140142</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>358,57</t>
-        </is>
+      <c r="B34" t="n">
+        <v>358.57</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.6676270153471164</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>355,83</t>
-        </is>
+      <c r="B35" t="n">
+        <v>355.83</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.7641464707030754</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>355,18</t>
-        </is>
+      <c r="B36" t="n">
+        <v>355.18</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.1826715004355939</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>356,29</t>
-        </is>
+      <c r="B37" t="n">
+        <v>356.29</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3125175967115368</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>357,63</t>
-        </is>
+      <c r="B38" t="n">
+        <v>357.63</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3760981223160931</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>359,12</t>
-        </is>
+      <c r="B39" t="n">
+        <v>359.12</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4166317143416309</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>360,7</t>
-        </is>
+      <c r="B40" t="n">
+        <v>360.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4399643573178791</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>362,12</t>
-        </is>
+      <c r="B41" t="n">
+        <v>362.12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3936789575824884</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>363,1</t>
-        </is>
+      <c r="B42" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.2706285209322923</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>363,76</t>
-        </is>
+      <c r="B43" t="n">
+        <v>363.76</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1817681079592237</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>364,76</t>
-        </is>
+      <c r="B44" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2749065317791954</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>365,33</t>
-        </is>
+      <c r="B45" t="n">
+        <v>365.33</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1562671345542332</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>362,86</t>
-        </is>
+      <c r="B46" t="n">
+        <v>362.86</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.6761010593162253</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>359,13</t>
-        </is>
+      <c r="B47" t="n">
+        <v>359.13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.027944661853064</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>358,26</t>
-        </is>
+      <c r="B48" t="n">
+        <v>358.26</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.2422521092640517</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>359,03</t>
-        </is>
+      <c r="B49" t="n">
+        <v>359.03</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.214927706135204</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>360,84</t>
-        </is>
+      <c r="B50" t="n">
+        <v>360.84</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5041361446118664</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>363,15</t>
-        </is>
+      <c r="B51" t="n">
+        <v>363.15</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.6401729298304071</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>364,86</t>
-        </is>
+      <c r="B52" t="n">
+        <v>364.86</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4708798017348359</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>365,71</t>
-        </is>
+      <c r="B53" t="n">
+        <v>365.71</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2329660691771984</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>365,46</t>
-        </is>
+      <c r="B54" t="n">
+        <v>365.46</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-0.06836017609581635</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>366,16</t>
-        </is>
+      <c r="B55" t="n">
+        <v>366.16</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1915394297597572</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>367,02</t>
-        </is>
+      <c r="B56" t="n">
+        <v>367.02</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2348700021848282</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>365,99</t>
-        </is>
+      <c r="B57" t="n">
+        <v>365.99</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.2806386572938746</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>363,48</t>
-        </is>
+      <c r="B58" t="n">
+        <v>363.48</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-0.6858110877346335</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>360,17</t>
-        </is>
+      <c r="B59" t="n">
+        <v>360.17</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.9106415758776243</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>358,51</t>
-        </is>
+      <c r="B60" t="n">
+        <v>358.51</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.4608934669739329</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>359,47</t>
-        </is>
+      <c r="B61" t="n">
+        <v>359.47</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.2677749574628407</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>361,19</t>
-        </is>
+      <c r="B62" t="n">
+        <v>361.19</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.4784822099201502</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>362,79</t>
-        </is>
+      <c r="B63" t="n">
+        <v>362.79</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.4429801489520768</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>364,17</t>
-        </is>
+      <c r="B64" t="n">
+        <v>364.17</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.380385346894907</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>365,01</t>
-        </is>
+      <c r="B65" t="n">
+        <v>365.01</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.2306615042425131</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>365,91</t>
-        </is>
+      <c r="B66" t="n">
+        <v>365.91</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.2465685871620105</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>366,81</t>
-        </is>
+      <c r="B67" t="n">
+        <v>366.81</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.245962121833232</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>366,78</t>
-        </is>
+      <c r="B68" t="n">
+        <v>366.78</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.008178621084498072</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>364,93</t>
-        </is>
+      <c r="B69" t="n">
+        <v>364.93</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.5043895523201836</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>362,54</t>
-        </is>
+      <c r="B70" t="n">
+        <v>362.54</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.6549201216671685</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>361,03</t>
-        </is>
+      <c r="B71" t="n">
+        <v>361.03</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.4165057648811255</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>360,56</t>
-        </is>
+      <c r="B72" t="n">
+        <v>360.56</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.1301830872780574</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>361,65</t>
-        </is>
+      <c r="B73" t="n">
+        <v>361.65</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.3023075216330051</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>363,74</t>
-        </is>
+      <c r="B74" t="n">
+        <v>363.74</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5779068159823098</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>365,43</t>
-        </is>
+      <c r="B75" t="n">
+        <v>365.43</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.4646175839885691</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>366,62</t>
-        </is>
+      <c r="B76" t="n">
+        <v>366.62</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.3256437621432351</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>367,48</t>
-        </is>
+      <c r="B77" t="n">
+        <v>367.48</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.2345753095848613</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>365,18</t>
-        </is>
+      <c r="B78" t="n">
+        <v>365.18</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.6258844018722121</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>364,27</t>
-        </is>
+      <c r="B79" t="n">
+        <v>364.27</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.249192179199309</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>364,45</t>
-        </is>
+      <c r="B80" t="n">
+        <v>364.45</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.04941389628572157</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>367,08</t>
-        </is>
+      <c r="B81" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.7216353409246867</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>369,41</t>
-        </is>
+      <c r="B82" t="n">
+        <v>369.41</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6347390214667126</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>370,06</t>
-        </is>
+      <c r="B83" t="n">
+        <v>370.06</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1759562545680993</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>370,49</t>
-        </is>
+      <c r="B84" t="n">
+        <v>370.49</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1161973733989186</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>371,38</t>
-        </is>
+      <c r="B85" t="n">
+        <v>371.38</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.2402224081621496</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>371,42</t>
-        </is>
+      <c r="B86" t="n">
+        <v>371.42</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.01077063923744515</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>371,09</t>
-        </is>
+      <c r="B87" t="n">
+        <v>371.09</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.08884820418934014</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>370,95</t>
-        </is>
+      <c r="B88" t="n">
+        <v>370.95</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.03772669702767351</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>368,33</t>
-        </is>
+      <c r="B89" t="n">
+        <v>368.33</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.706294648874517</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>364,89</t>
-        </is>
+      <c r="B90" t="n">
+        <v>364.89</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-0.9339451035755952</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>364,46</t>
-        </is>
+      <c r="B91" t="n">
+        <v>364.46</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-0.1178437337279736</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>365,82</t>
-        </is>
+      <c r="B92" t="n">
+        <v>365.82</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.3731548043681032</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>367,34</t>
-        </is>
+      <c r="B93" t="n">
+        <v>367.34</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.4155048931168359</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>368,8</t>
-        </is>
+      <c r="B94" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.3974519518702202</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>370,31</t>
-        </is>
+      <c r="B95" t="n">
+        <v>370.31</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4094360086767779</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>371,23</t>
-        </is>
+      <c r="B96" t="n">
+        <v>371.23</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.2484404958008168</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>372,06</t>
-        </is>
+      <c r="B97" t="n">
+        <v>372.06</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.2235810683403727</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>373,42</t>
-        </is>
+      <c r="B98" t="n">
+        <v>373.42</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.3655324410041461</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>373,55</t>
-        </is>
+      <c r="B99" t="n">
+        <v>373.55</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.03481334690160764</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>372,23</t>
-        </is>
+      <c r="B100" t="n">
+        <v>372.23</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.3533663498862194</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>369,5</t>
-        </is>
+      <c r="B101" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.7334175106788909</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>366,78</t>
-        </is>
+      <c r="B102" t="n">
+        <v>366.78</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-0.7361299052774051</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>367,08</t>
-        </is>
+      <c r="B103" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.08179290037624298</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>368,62</t>
-        </is>
+      <c r="B104" t="n">
+        <v>368.62</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.4195270785659844</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>369,63</t>
-        </is>
+      <c r="B105" t="n">
+        <v>369.63</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.2739948998969011</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
+      <c r="B106" t="n">
+        <v>371</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.3706409111814635</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>372,08</t>
-        </is>
+      <c r="B107" t="n">
+        <v>372.08</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.2911051212937998</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>372,5</t>
-        </is>
+      <c r="B108" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.1128789507632844</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>373,82</t>
-        </is>
+      <c r="B109" t="n">
+        <v>373.82</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.3543624161073788</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>375,71</t>
-        </is>
+      <c r="B110" t="n">
+        <v>375.71</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5055909261141744</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>375,8</t>
-        </is>
+      <c r="B111" t="n">
+        <v>375.8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.02395464587048313</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>373,2</t>
-        </is>
+      <c r="B112" t="n">
+        <v>373.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.6918573709419951</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>370,32</t>
-        </is>
+      <c r="B113" t="n">
+        <v>370.32</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.7717041800643032</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>368,72</t>
-        </is>
+      <c r="B114" t="n">
+        <v>368.72</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.4320587599913495</v>
+      </c>
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>367,83</t>
-        </is>
+      <c r="B115" t="n">
+        <v>367.83</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.2413755695378716</v>
+      </c>
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>369,29</t>
-        </is>
+      <c r="B116" t="n">
+        <v>369.29</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.3969224913683123</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>371,86</t>
-        </is>
+      <c r="B117" t="n">
+        <v>371.86</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.6959300278913672</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>372,6</t>
-        </is>
+      <c r="B118" t="n">
+        <v>372.6</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1989996235142177</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>373,26</t>
-        </is>
+      <c r="B119" t="n">
+        <v>373.26</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1771336553945124</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>375,18</t>
-        </is>
+      <c r="B120" t="n">
+        <v>375.18</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.5143867545410741</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>375,98</t>
-        </is>
+      <c r="B121" t="n">
+        <v>375.98</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.213230982461754</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>375,87</t>
-        </is>
+      <c r="B122" t="n">
+        <v>375.87</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.02925687536571298</v>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>375,21</t>
-        </is>
+      <c r="B123" t="n">
+        <v>375.21</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-0.175592625109755</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>373,48</t>
-        </is>
+      <c r="B124" t="n">
+        <v>373.48</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-0.4610751312598138</v>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>371,88</t>
-        </is>
+      <c r="B125" t="n">
+        <v>371.88</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0.4284031273428357</v>
+      </c>
+      <c r="D125" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>369,99</t>
-        </is>
+      <c r="B126" t="n">
+        <v>369.99</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-0.5082284607938026</v>
+      </c>
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>369,27</t>
-        </is>
+      <c r="B127" t="n">
+        <v>369.27</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.1945998540501148</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>370,29</t>
-        </is>
+      <c r="B128" t="n">
+        <v>370.29</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.2762206515557919</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
+      <c r="B129" t="n">
+        <v>372</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.461800210645702</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>373,47</t>
-        </is>
+      <c r="B130" t="n">
+        <v>373.47</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3951612903225987</v>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>373,87</t>
-        </is>
+      <c r="B131" t="n">
+        <v>373.87</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.1071036495568611</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>373,99</t>
-        </is>
+      <c r="B132" t="n">
+        <v>373.99</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.03209671811057468</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>375,38</t>
-        </is>
+      <c r="B133" t="n">
+        <v>375.38</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.3716676916495132</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>377,33</t>
-        </is>
+      <c r="B134" t="n">
+        <v>377.33</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5194736000852407</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>378,08</t>
-        </is>
+      <c r="B135" t="n">
+        <v>378.08</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.1987650067580171</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>377,16</t>
-        </is>
+      <c r="B136" t="n">
+        <v>377.16</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-0.2433347439695144</v>
+      </c>
+      <c r="D136" t="b">
+        <v>0</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>375,16</t>
-        </is>
+      <c r="B137" t="n">
+        <v>375.16</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.5302789267154551</v>
+      </c>
+      <c r="D137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>372,76</t>
-        </is>
+      <c r="B138" t="n">
+        <v>372.76</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-0.6397270497920937</v>
+      </c>
+      <c r="D138" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>371,76</t>
-        </is>
+      <c r="B139" t="n">
+        <v>371.76</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.2682691275887938</v>
+      </c>
+      <c r="D139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>372,44</t>
-        </is>
+      <c r="B140" t="n">
+        <v>372.44</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.1829137077684617</v>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>374,71</t>
-        </is>
+      <c r="B141" t="n">
+        <v>374.71</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.6094941467081894</v>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>375,79</t>
-        </is>
+      <c r="B142" t="n">
+        <v>375.79</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.2882228923701158</v>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>376,57</t>
-        </is>
+      <c r="B143" t="n">
+        <v>376.57</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.2075627345059727</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>379,06</t>
-        </is>
+      <c r="B144" t="n">
+        <v>379.06</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.6612316435191445</v>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>379,17</t>
-        </is>
+      <c r="B145" t="n">
+        <v>379.17</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.02901915264075239</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>378,91</t>
-        </is>
+      <c r="B146" t="n">
+        <v>378.91</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-0.06857082575097984</v>
+      </c>
+      <c r="D146" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>379,52</t>
-        </is>
+      <c r="B147" t="n">
+        <v>379.52</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.1609880974373645</v>
+      </c>
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>379,08</t>
-        </is>
+      <c r="B148" t="n">
+        <v>379.08</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.1159359190556541</v>
+      </c>
+      <c r="D148" t="b">
+        <v>0</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>376,82</t>
-        </is>
+      <c r="B149" t="n">
+        <v>376.82</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.5961802258098503</v>
+      </c>
+      <c r="D149" t="b">
+        <v>0</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>373,45</t>
-        </is>
+      <c r="B150" t="n">
+        <v>373.45</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.8943262034923793</v>
+      </c>
+      <c r="D150" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>372,07</t>
-        </is>
+      <c r="B151" t="n">
+        <v>372.07</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.3695273798366538</v>
+      </c>
+      <c r="D151" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>373,71</t>
-        </is>
+      <c r="B152" t="n">
+        <v>373.71</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4407772730937731</v>
+      </c>
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>377,25</t>
-        </is>
+      <c r="B153" t="n">
+        <v>377.25</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9472585694790148</v>
+      </c>
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>378,66</t>
-        </is>
+      <c r="B154" t="n">
+        <v>378.66</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.3737574552683975</v>
+      </c>
+      <c r="D154" t="b">
+        <v>1</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>378,71</t>
-        </is>
+      <c r="B155" t="n">
+        <v>378.71</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.01320445782495572</v>
+      </c>
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>380,33</t>
-        </is>
+      <c r="B156" t="n">
+        <v>380.33</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4277679490903408</v>
+      </c>
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>381,08</t>
-        </is>
+      <c r="B157" t="n">
+        <v>381.08</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.1971971708779163</v>
+      </c>
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>380,7</t>
-        </is>
+      <c r="B158" t="n">
+        <v>380.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0.09971659494069085</v>
+      </c>
+      <c r="D158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>380,89</t>
-        </is>
+      <c r="B159" t="n">
+        <v>380.89</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.04990806409246318</v>
+      </c>
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>379,22</t>
-        </is>
+      <c r="B160" t="n">
+        <v>379.22</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.4384467956627836</v>
+      </c>
+      <c r="D160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>375,64</t>
-        </is>
+      <c r="B161" t="n">
+        <v>375.64</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.9440430357048779</v>
+      </c>
+      <c r="D161" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>374,75</t>
-        </is>
+      <c r="B162" t="n">
+        <v>374.75</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.2369289745500991</v>
+      </c>
+      <c r="D162" t="b">
+        <v>0</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>374,71</t>
-        </is>
+      <c r="B163" t="n">
+        <v>374.71</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.01067378252168627</v>
+      </c>
+      <c r="D163" t="b">
+        <v>0</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>375,73</t>
-        </is>
+      <c r="B164" t="n">
+        <v>375.73</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.2722105094606686</v>
+      </c>
+      <c r="D164" t="b">
+        <v>1</v>
+      </c>
+      <c r="E164" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>379,05</t>
-        </is>
+      <c r="B165" t="n">
+        <v>379.05</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.8836132329065993</v>
+      </c>
+      <c r="D165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>381,05</t>
-        </is>
+      <c r="B166" t="n">
+        <v>381.05</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.5276348766653394</v>
+      </c>
+      <c r="D166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>382,47</t>
-        </is>
+      <c r="B167" t="n">
+        <v>382.47</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.3726545072825216</v>
+      </c>
+      <c r="D167" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>383,24</t>
-        </is>
+      <c r="B168" t="n">
+        <v>383.24</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.2013229795800875</v>
+      </c>
+      <c r="D168" t="b">
+        <v>1</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>383,06</t>
-        </is>
+      <c r="B169" t="n">
+        <v>383.06</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-0.04696795741572224</v>
+      </c>
+      <c r="D169" t="b">
+        <v>0</v>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>383,41</t>
-        </is>
+      <c r="B170" t="n">
+        <v>383.41</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.09136949825092611</v>
+      </c>
+      <c r="D170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>383,59</t>
-        </is>
+      <c r="B171" t="n">
+        <v>383.59</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.04694713231265801</v>
+      </c>
+      <c r="D171" t="b">
+        <v>1</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>382,25</t>
-        </is>
+      <c r="B172" t="n">
+        <v>382.25</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-0.3493313172918899</v>
+      </c>
+      <c r="D172" t="b">
+        <v>0</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>379,88</t>
-        </is>
+      <c r="B173" t="n">
+        <v>379.88</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.6200130804447368</v>
+      </c>
+      <c r="D173" t="b">
+        <v>0</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>378,44</t>
-        </is>
+      <c r="B174" t="n">
+        <v>378.44</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.3790670738127777</v>
+      </c>
+      <c r="D174" t="b">
+        <v>0</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>378,3</t>
-        </is>
+      <c r="B175" t="n">
+        <v>378.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.03699397526688575</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>379,31</t>
-        </is>
+      <c r="B176" t="n">
+        <v>379.31</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.266983875231297</v>
+      </c>
+      <c r="D176" t="b">
+        <v>1</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>380,78</t>
-        </is>
+      <c r="B177" t="n">
+        <v>380.78</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.3875458068598236</v>
+      </c>
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>382,01</t>
-        </is>
+      <c r="B178" t="n">
+        <v>382.01</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.3230211670780969</v>
+      </c>
+      <c r="D178" t="b">
+        <v>1</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>382,51</t>
-        </is>
+      <c r="B179" t="n">
+        <v>382.51</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.130886626004556</v>
+      </c>
+      <c r="D179" t="b">
+        <v>1</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>384,47</t>
-        </is>
+      <c r="B180" t="n">
+        <v>384.47</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.5124049044469503</v>
+      </c>
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>386,45</t>
-        </is>
+      <c r="B181" t="n">
+        <v>386.45</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.5149946679844808</v>
+      </c>
+      <c r="D181" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>385,74</t>
-        </is>
+      <c r="B182" t="n">
+        <v>385.74</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-0.1837236382455587</v>
+      </c>
+      <c r="D182" t="b">
+        <v>0</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>385,17</t>
-        </is>
+      <c r="B183" t="n">
+        <v>385.17</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-0.1477679265826759</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>384,11</t>
-        </is>
+      <c r="B184" t="n">
+        <v>384.11</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-0.2752031570475433</v>
+      </c>
+      <c r="D184" t="b">
+        <v>0</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>382,28</t>
-        </is>
+      <c r="B185" t="n">
+        <v>382.28</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-0.4764260237952733</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>380,34</t>
-        </is>
+      <c r="B186" t="n">
+        <v>380.34</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-0.5074814272261197</v>
+      </c>
+      <c r="D186" t="b">
+        <v>0</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>379,29</t>
-        </is>
+      <c r="B187" t="n">
+        <v>379.29</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-0.2760687805647422</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>381,16</t>
-        </is>
+      <c r="B188" t="n">
+        <v>381.16</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.4930264441456389</v>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>383,35</t>
-        </is>
+      <c r="B189" t="n">
+        <v>383.35</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.5745618637842398</v>
+      </c>
+      <c r="D189" t="b">
+        <v>1</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>384,67</t>
-        </is>
+      <c r="B190" t="n">
+        <v>384.67</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.3443328550932545</v>
+      </c>
+      <c r="D190" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>385,99</t>
-        </is>
+      <c r="B191" t="n">
+        <v>385.99</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.3431512725192931</v>
+      </c>
+      <c r="D191" t="b">
+        <v>1</v>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>387,3</t>
-        </is>
+      <c r="B192" t="n">
+        <v>387.3</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.3393870307520919</v>
+      </c>
+      <c r="D192" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>387,9</t>
-        </is>
+      <c r="B193" t="n">
+        <v>387.9</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.1549186676994552</v>
+      </c>
+      <c r="D193" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>388,49</t>
-        </is>
+      <c r="B194" t="n">
+        <v>388.49</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.1521010569734527</v>
+      </c>
+      <c r="D194" t="b">
+        <v>1</v>
+      </c>
+      <c r="E194" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>389,12</t>
-        </is>
+      <c r="B195" t="n">
+        <v>389.12</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.1621663363278403</v>
+      </c>
+      <c r="D195" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>388,03</t>
-        </is>
+      <c r="B196" t="n">
+        <v>388.03</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-0.280119243421062</v>
+      </c>
+      <c r="D196" t="b">
+        <v>0</v>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>385,67</t>
-        </is>
+      <c r="B197" t="n">
+        <v>385.67</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-0.6082003968765237</v>
+      </c>
+      <c r="D197" t="b">
+        <v>0</v>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>382,67</t>
-        </is>
+      <c r="B198" t="n">
+        <v>382.67</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-0.7778670884434846</v>
+      </c>
+      <c r="D198" t="b">
+        <v>0</v>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>381,26</t>
-        </is>
+      <c r="B199" t="n">
+        <v>381.26</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-0.3684636893406923</v>
+      </c>
+      <c r="D199" t="b">
+        <v>0</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>382,8</t>
-        </is>
+      <c r="B200" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.40392383150607</v>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>385,14</t>
-        </is>
+      <c r="B201" t="n">
+        <v>385.14</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.611285266457684</v>
+      </c>
+      <c r="D201" t="b">
+        <v>1</v>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>387,31</t>
-        </is>
+      <c r="B202" t="n">
+        <v>387.31</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.5634314794620288</v>
+      </c>
+      <c r="D202" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>388,89</t>
-        </is>
+      <c r="B203" t="n">
+        <v>388.89</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.4079419586377808</v>
+      </c>
+      <c r="D203" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>388,73</t>
-        </is>
+      <c r="B204" t="n">
+        <v>388.73</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-0.04114273959215931</v>
+      </c>
+      <c r="D204" t="b">
+        <v>0</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>388,89</t>
-        </is>
+      <c r="B205" t="n">
+        <v>388.89</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.04115967380957652</v>
+      </c>
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>390,03</t>
-        </is>
+      <c r="B206" t="n">
+        <v>390.03</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.293142019594228</v>
+      </c>
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>390,47</t>
-        </is>
+      <c r="B207" t="n">
+        <v>390.47</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.1128118349870588</v>
+      </c>
+      <c r="D207" t="b">
+        <v>1</v>
+      </c>
+      <c r="E207" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>388,62</t>
-        </is>
+      <c r="B208" t="n">
+        <v>388.62</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-0.4737879990780347</v>
+      </c>
+      <c r="D208" t="b">
+        <v>0</v>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>386,3</t>
-        </is>
+      <c r="B209" t="n">
+        <v>386.3</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-0.5969842005043469</v>
+      </c>
+      <c r="D209" t="b">
+        <v>0</v>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>384,13</t>
-        </is>
+      <c r="B210" t="n">
+        <v>384.13</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-0.5617395806368108</v>
+      </c>
+      <c r="D210" t="b">
+        <v>0</v>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>382,92</t>
-        </is>
+      <c r="B211" t="n">
+        <v>382.92</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-0.3149975268789129</v>
+      </c>
+      <c r="D211" t="b">
+        <v>0</v>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>384,21</t>
-        </is>
+      <c r="B212" t="n">
+        <v>384.21</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.3368849890316383</v>
+      </c>
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>386,48</t>
-        </is>
+      <c r="B213" t="n">
+        <v>386.48</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.5908227271544275</v>
+      </c>
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>388,04</t>
-        </is>
+      <c r="B214" t="n">
+        <v>388.04</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.403643138066645</v>
+      </c>
+      <c r="D214" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>389,95</t>
-        </is>
+      <c r="B215" t="n">
+        <v>389.95</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4922172971858485</v>
+      </c>
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>391,19</t>
-        </is>
+      <c r="B216" t="n">
+        <v>391.19</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.3179894858315269</v>
+      </c>
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>390,99</t>
-        </is>
+      <c r="B217" t="n">
+        <v>390.99</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-0.05112605127942649</v>
+      </c>
+      <c r="D217" t="b">
+        <v>0</v>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>391,62</t>
-        </is>
+      <c r="B218" t="n">
+        <v>391.62</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1611294406506536</v>
+      </c>
+      <c r="D218" t="b">
+        <v>1</v>
+      </c>
+      <c r="E218" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>392,24</t>
-        </is>
+      <c r="B219" t="n">
+        <v>392.24</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.1583167356110637</v>
+      </c>
+      <c r="D219" t="b">
+        <v>1</v>
+      </c>
+      <c r="E219" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>390,49</t>
-        </is>
+      <c r="B220" t="n">
+        <v>390.49</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-0.4461554150520075</v>
+      </c>
+      <c r="D220" t="b">
+        <v>0</v>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>388,14</t>
-        </is>
+      <c r="B221" t="n">
+        <v>388.14</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-0.6018079848395641</v>
+      </c>
+      <c r="D221" t="b">
+        <v>0</v>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>386,52</t>
-        </is>
+      <c r="B222" t="n">
+        <v>386.52</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-0.4173751739063203</v>
+      </c>
+      <c r="D222" t="b">
+        <v>0</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>386,4</t>
-        </is>
+      <c r="B223" t="n">
+        <v>386.4</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-0.03104625892580426</v>
+      </c>
+      <c r="D223" t="b">
+        <v>0</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>387,67</t>
-        </is>
+      <c r="B224" t="n">
+        <v>387.67</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.3286749482401818</v>
+      </c>
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
+      <c r="E224" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>388,96</t>
-        </is>
+      <c r="B225" t="n">
+        <v>388.96</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.3327572419841607</v>
+      </c>
+      <c r="D225" t="b">
+        <v>1</v>
+      </c>
+      <c r="E225" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>390,73</t>
-        </is>
+      <c r="B226" t="n">
+        <v>390.73</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.4550596462361334</v>
+      </c>
+      <c r="D226" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>392,6</t>
-        </is>
+      <c r="B227" t="n">
+        <v>392.6</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.4785913546438758</v>
+      </c>
+      <c r="D227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E227" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>393,92</t>
-        </is>
+      <c r="B228" t="n">
+        <v>393.92</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.3362200713194152</v>
+      </c>
+      <c r="D228" t="b">
+        <v>1</v>
+      </c>
+      <c r="E228" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>394,68</t>
-        </is>
+      <c r="B229" t="n">
+        <v>394.68</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1929325751421684</v>
+      </c>
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>394,86</t>
-        </is>
+      <c r="B230" t="n">
+        <v>394.86</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.04560656734569069</v>
+      </c>
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+      <c r="E230" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>394,97</t>
-        </is>
+      <c r="B231" t="n">
+        <v>394.97</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.02785797497848463</v>
+      </c>
+      <c r="D231" t="b">
+        <v>1</v>
+      </c>
+      <c r="E231" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>393,65</t>
-        </is>
+      <c r="B232" t="n">
+        <v>393.65</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-0.334202597665656</v>
+      </c>
+      <c r="D232" t="b">
+        <v>0</v>
+      </c>
+      <c r="E232" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>391,15</t>
-        </is>
+      <c r="B233" t="n">
+        <v>391.15</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-0.6350819255684037</v>
+      </c>
+      <c r="D233" t="b">
+        <v>0</v>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>388,55</t>
-        </is>
+      <c r="B234" t="n">
+        <v>388.55</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-0.6647066342835184</v>
+      </c>
+      <c r="D234" t="b">
+        <v>0</v>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>386,96</t>
-        </is>
+      <c r="B235" t="n">
+        <v>386.96</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-0.4092137434049792</v>
+      </c>
+      <c r="D235" t="b">
+        <v>0</v>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>388,54</t>
-        </is>
+      <c r="B236" t="n">
+        <v>388.54</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.408310936530909</v>
+      </c>
+      <c r="D236" t="b">
+        <v>1</v>
+      </c>
+      <c r="E236" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>390,98</t>
-        </is>
+      <c r="B237" t="n">
+        <v>390.98</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.627991969938746</v>
+      </c>
+      <c r="D237" t="b">
+        <v>1</v>
+      </c>
+      <c r="E237" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>392,16</t>
-        </is>
+      <c r="B238" t="n">
+        <v>392.16</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.3018057189626111</v>
+      </c>
+      <c r="D238" t="b">
+        <v>1</v>
+      </c>
+      <c r="E238" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>393,86</t>
-        </is>
+      <c r="B239" t="n">
+        <v>393.86</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4334965320277329</v>
+      </c>
+      <c r="D239" t="b">
+        <v>1</v>
+      </c>
+      <c r="E239" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>395,2</t>
-        </is>
+      <c r="B240" t="n">
+        <v>395.2</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.3402224140557575</v>
+      </c>
+      <c r="D240" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>396,15</t>
-        </is>
+      <c r="B241" t="n">
+        <v>396.15</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.2403846153846034</v>
+      </c>
+      <c r="D241" t="b">
+        <v>1</v>
+      </c>
+      <c r="E241" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>397,25</t>
-        </is>
+      <c r="B242" t="n">
+        <v>397.25</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.2776725987631012</v>
+      </c>
+      <c r="D242" t="b">
+        <v>1</v>
+      </c>
+      <c r="E242" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>397,18</t>
-        </is>
+      <c r="B243" t="n">
+        <v>397.18</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-0.01762114537444681</v>
+      </c>
+      <c r="D243" t="b">
+        <v>0</v>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>395,8</t>
-        </is>
+      <c r="B244" t="n">
+        <v>395.8</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-0.3474495191097215</v>
+      </c>
+      <c r="D244" t="b">
+        <v>0</v>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>393,51</t>
-        </is>
+      <c r="B245" t="n">
+        <v>393.51</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-0.5785750378979326</v>
+      </c>
+      <c r="D245" t="b">
+        <v>0</v>
+      </c>
+      <c r="E245" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>391,16</t>
-        </is>
+      <c r="B246" t="n">
+        <v>391.16</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-0.5971893979822562</v>
+      </c>
+      <c r="D246" t="b">
+        <v>0</v>
+      </c>
+      <c r="E246" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>390,48</t>
-        </is>
+      <c r="B247" t="n">
+        <v>390.48</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-0.1738419061253715</v>
+      </c>
+      <c r="D247" t="b">
+        <v>0</v>
+      </c>
+      <c r="E247" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>391,83</t>
-        </is>
+      <c r="B248" t="n">
+        <v>391.83</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.3457283343577089</v>
+      </c>
+      <c r="D248" t="b">
+        <v>1</v>
+      </c>
+      <c r="E248" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>393,44</t>
-        </is>
+      <c r="B249" t="n">
+        <v>393.44</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.410892478881153</v>
+      </c>
+      <c r="D249" t="b">
+        <v>1</v>
+      </c>
+      <c r="E249" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>394,48</t>
-        </is>
+      <c r="B250" t="n">
+        <v>394.48</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.264335095567314</v>
+      </c>
+      <c r="D250" t="b">
+        <v>1</v>
+      </c>
+      <c r="E250" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>395,35</t>
-        </is>
+      <c r="B251" t="n">
+        <v>395.35</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.2205435003042044</v>
+      </c>
+      <c r="D251" t="b">
+        <v>1</v>
+      </c>
+      <c r="E251" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>396,7</t>
-        </is>
+      <c r="B252" t="n">
+        <v>396.7</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.34146958391299</v>
+      </c>
+      <c r="D252" t="b">
+        <v>1</v>
+      </c>
+      <c r="E252" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>398,21</t>
-        </is>
+      <c r="B253" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.3806402823292032</v>
+      </c>
+      <c r="D253" t="b">
+        <v>1</v>
+      </c>
+      <c r="E253" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>399,35</t>
-        </is>
+      <c r="B254" t="n">
+        <v>399.35</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.2862811079581196</v>
+      </c>
+      <c r="D254" t="b">
+        <v>1</v>
+      </c>
+      <c r="E254" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>399,35</t>
-        </is>
+      <c r="B255" t="n">
+        <v>399.35</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="b">
+        <v>0</v>
+      </c>
+      <c r="E255" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>398,04</t>
-        </is>
+      <c r="B256" t="n">
+        <v>398.04</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.3280330537122844</v>
+      </c>
+      <c r="D256" t="b">
+        <v>0</v>
+      </c>
+      <c r="E256" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>396,04</t>
-        </is>
+      <c r="B257" t="n">
+        <v>396.04</v>
+      </c>
+      <c r="C257" t="n">
+        <v>-0.5024620641141619</v>
+      </c>
+      <c r="D257" t="b">
+        <v>0</v>
+      </c>
+      <c r="E257" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>393,47</t>
-        </is>
+      <c r="B258" t="n">
+        <v>393.47</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-0.6489243510756526</v>
+      </c>
+      <c r="D258" t="b">
+        <v>0</v>
+      </c>
+      <c r="E258" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>392,28</t>
-        </is>
+      <c r="B259" t="n">
+        <v>392.28</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-0.3024372887386773</v>
+      </c>
+      <c r="D259" t="b">
+        <v>0</v>
+      </c>
+      <c r="E259" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>393,45</t>
-        </is>
+      <c r="B260" t="n">
+        <v>393.45</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.2982563475068867</v>
+      </c>
+      <c r="D260" t="b">
+        <v>1</v>
+      </c>
+      <c r="E260" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>396,04</t>
-        </is>
+      <c r="B261" t="n">
+        <v>396.04</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.658279323929345</v>
+      </c>
+      <c r="D261" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>398,42</t>
-        </is>
+      <c r="B262" t="n">
+        <v>398.42</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.6009493990505987</v>
+      </c>
+      <c r="D262" t="b">
+        <v>1</v>
+      </c>
+      <c r="E262" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>398,67</t>
-        </is>
+      <c r="B263" t="n">
+        <v>398.67</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.06274785402338168</v>
+      </c>
+      <c r="D263" t="b">
+        <v>1</v>
+      </c>
+      <c r="E263" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>397,87</t>
-        </is>
+      <c r="B264" t="n">
+        <v>397.87</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-0.2006672185015157</v>
+      </c>
+      <c r="D264" t="b">
+        <v>0</v>
+      </c>
+      <c r="E264" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>399,17</t>
-        </is>
+      <c r="B265" t="n">
+        <v>399.17</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.3267398899137852</v>
+      </c>
+      <c r="D265" t="b">
+        <v>1</v>
+      </c>
+      <c r="E265" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>401,29</t>
-        </is>
+      <c r="B266" t="n">
+        <v>401.29</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5311020367262165</v>
+      </c>
+      <c r="D266" t="b">
+        <v>1</v>
+      </c>
+      <c r="E266" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>401,29</t>
-        </is>
+      <c r="B267" t="n">
+        <v>401.29</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="b">
+        <v>0</v>
+      </c>
+      <c r="E267" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>399,84</t>
-        </is>
+      <c r="B268" t="n">
+        <v>399.84</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-0.3613346956066743</v>
+      </c>
+      <c r="D268" t="b">
+        <v>0</v>
+      </c>
+      <c r="E268" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>397,28</t>
-        </is>
+      <c r="B269" t="n">
+        <v>397.28</v>
+      </c>
+      <c r="C269" t="n">
+        <v>-0.6402561024409725</v>
+      </c>
+      <c r="D269" t="b">
+        <v>0</v>
+      </c>
+      <c r="E269" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>394,88</t>
-        </is>
+      <c r="B270" t="n">
+        <v>394.88</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-0.6041079339508593</v>
+      </c>
+      <c r="D270" t="b">
+        <v>0</v>
+      </c>
+      <c r="E270" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>394,4</t>
-        </is>
+      <c r="B271" t="n">
+        <v>394.4</v>
+      </c>
+      <c r="C271" t="n">
+        <v>-0.1215559157212387</v>
+      </c>
+      <c r="D271" t="b">
+        <v>0</v>
+      </c>
+      <c r="E271" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>395,5</t>
-        </is>
+      <c r="B272" t="n">
+        <v>395.5</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.2789046653144167</v>
+      </c>
+      <c r="D272" t="b">
+        <v>1</v>
+      </c>
+      <c r="E272" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>398,55</t>
-        </is>
+      <c r="B273" t="n">
+        <v>398.55</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.7711757269279529</v>
+      </c>
+      <c r="D273" t="b">
+        <v>1</v>
+      </c>
+      <c r="E273" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>400,67</t>
-        </is>
+      <c r="B274" t="n">
+        <v>400.67</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5319282398695391</v>
+      </c>
+      <c r="D274" t="b">
+        <v>1</v>
+      </c>
+      <c r="E274" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>400,85</t>
-        </is>
+      <c r="B275" t="n">
+        <v>400.85</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.0449247510420081</v>
+      </c>
+      <c r="D275" t="b">
+        <v>1</v>
+      </c>
+      <c r="E275" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>401,57</t>
-        </is>
+      <c r="B276" t="n">
+        <v>401.57</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1796183110889249</v>
+      </c>
+      <c r="D276" t="b">
+        <v>1</v>
+      </c>
+      <c r="E276" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>402,37</t>
-        </is>
+      <c r="B277" t="n">
+        <v>402.37</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.199218069078877</v>
+      </c>
+      <c r="D277" t="b">
+        <v>1</v>
+      </c>
+      <c r="E277" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>402,73</t>
-        </is>
+      <c r="B278" t="n">
+        <v>402.73</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.08946989089644308</v>
+      </c>
+      <c r="D278" t="b">
+        <v>1</v>
+      </c>
+      <c r="E278" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>402,61</t>
-        </is>
+      <c r="B279" t="n">
+        <v>402.61</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-0.02979663794602239</v>
+      </c>
+      <c r="D279" t="b">
+        <v>0</v>
+      </c>
+      <c r="E279" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>401,3</t>
-        </is>
+      <c r="B280" t="n">
+        <v>401.3</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-0.3253769156255415</v>
+      </c>
+      <c r="D280" t="b">
+        <v>0</v>
+      </c>
+      <c r="E280" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>399,56</t>
-        </is>
+      <c r="B281" t="n">
+        <v>399.56</v>
+      </c>
+      <c r="C281" t="n">
+        <v>-0.4335908298031432</v>
+      </c>
+      <c r="D281" t="b">
+        <v>0</v>
+      </c>
+      <c r="E281" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>397,7</t>
-        </is>
+      <c r="B282" t="n">
+        <v>397.7</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-0.4655120632696019</v>
+      </c>
+      <c r="D282" t="b">
+        <v>0</v>
+      </c>
+      <c r="E282" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>396,81</t>
-        </is>
+      <c r="B283" t="n">
+        <v>396.81</v>
+      </c>
+      <c r="C283" t="n">
+        <v>-0.2237867739502075</v>
+      </c>
+      <c r="D283" t="b">
+        <v>0</v>
+      </c>
+      <c r="E283" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>398,46</t>
-        </is>
+      <c r="B284" t="n">
+        <v>398.46</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.4158161336659916</v>
+      </c>
+      <c r="D284" t="b">
+        <v>1</v>
+      </c>
+      <c r="E284" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>400,14</t>
-        </is>
+      <c r="B285" t="n">
+        <v>400.14</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4216232495106276</v>
+      </c>
+      <c r="D285" t="b">
+        <v>1</v>
+      </c>
+      <c r="E285" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>401,54</t>
-        </is>
+      <c r="B286" t="n">
+        <v>401.54</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.3498775428599998</v>
+      </c>
+      <c r="D286" t="b">
+        <v>1</v>
+      </c>
+      <c r="E286" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>403,4</t>
-        </is>
+      <c r="B287" t="n">
+        <v>403.4</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.4632166160282836</v>
+      </c>
+      <c r="D287" t="b">
+        <v>1</v>
+      </c>
+      <c r="E287" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>405,22</t>
-        </is>
+      <c r="B288" t="n">
+        <v>405.22</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.451165096678241</v>
+      </c>
+      <c r="D288" t="b">
+        <v>1</v>
+      </c>
+      <c r="E288" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>406,58</t>
-        </is>
+      <c r="B289" t="n">
+        <v>406.58</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.3356201569517658</v>
+      </c>
+      <c r="D289" t="b">
+        <v>1</v>
+      </c>
+      <c r="E289" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>407,11</t>
-        </is>
+      <c r="B290" t="n">
+        <v>407.11</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.1303556495646729</v>
+      </c>
+      <c r="D290" t="b">
+        <v>1</v>
+      </c>
+      <c r="E290" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>406,76</t>
-        </is>
+      <c r="B291" t="n">
+        <v>406.76</v>
+      </c>
+      <c r="C291" t="n">
+        <v>-0.08597185035985611</v>
+      </c>
+      <c r="D291" t="b">
+        <v>0</v>
+      </c>
+      <c r="E291" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>405,22</t>
-        </is>
+      <c r="B292" t="n">
+        <v>405.22</v>
+      </c>
+      <c r="C292" t="n">
+        <v>-0.3786016324122232</v>
+      </c>
+      <c r="D292" t="b">
+        <v>0</v>
+      </c>
+      <c r="E292" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>402,99</t>
-        </is>
+      <c r="B293" t="n">
+        <v>402.99</v>
+      </c>
+      <c r="C293" t="n">
+        <v>-0.5503183455900507</v>
+      </c>
+      <c r="D293" t="b">
+        <v>0</v>
+      </c>
+      <c r="E293" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>400,97</t>
-        </is>
+      <c r="B294" t="n">
+        <v>400.97</v>
+      </c>
+      <c r="C294" t="n">
+        <v>-0.5012531328320802</v>
+      </c>
+      <c r="D294" t="b">
+        <v>0</v>
+      </c>
+      <c r="E294" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>400,08</t>
-        </is>
+      <c r="B295" t="n">
+        <v>400.08</v>
+      </c>
+      <c r="C295" t="n">
+        <v>-0.2219617427737797</v>
+      </c>
+      <c r="D295" t="b">
+        <v>0</v>
+      </c>
+      <c r="E295" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>401,23</t>
-        </is>
+      <c r="B296" t="n">
+        <v>401.23</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.2874425114977042</v>
+      </c>
+      <c r="D296" t="b">
+        <v>1</v>
+      </c>
+      <c r="E296" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>404,25</t>
-        </is>
+      <c r="B297" t="n">
+        <v>404.25</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.7526854921117598</v>
+      </c>
+      <c r="D297" t="b">
+        <v>1</v>
+      </c>
+      <c r="E297" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>406,43</t>
-        </is>
+      <c r="B298" t="n">
+        <v>406.43</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.539270253555979</v>
+      </c>
+      <c r="D298" t="b">
+        <v>1</v>
+      </c>
+      <c r="E298" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>407,04</t>
-        </is>
+      <c r="B299" t="n">
+        <v>407.04</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.1500873459144181</v>
+      </c>
+      <c r="D299" t="b">
+        <v>1</v>
+      </c>
+      <c r="E299" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>407,61</t>
-        </is>
+      <c r="B300" t="n">
+        <v>407.61</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.1400353773584939</v>
+      </c>
+      <c r="D300" t="b">
+        <v>1</v>
+      </c>
+      <c r="E300" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>408,37</t>
-        </is>
+      <c r="B301" t="n">
+        <v>408.37</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.1864527366845836</v>
+      </c>
+      <c r="D301" t="b">
+        <v>1</v>
+      </c>
+      <c r="E301" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>409,43</t>
-        </is>
+      <c r="B302" t="n">
+        <v>409.43</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.2595685285402993</v>
+      </c>
+      <c r="D302" t="b">
+        <v>1</v>
+      </c>
+      <c r="E302" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>409,26</t>
-        </is>
+      <c r="B303" t="n">
+        <v>409.26</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-0.04152113914467348</v>
+      </c>
+      <c r="D303" t="b">
+        <v>0</v>
+      </c>
+      <c r="E303" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>407,38</t>
-        </is>
+      <c r="B304" t="n">
+        <v>407.38</v>
+      </c>
+      <c r="C304" t="n">
+        <v>-0.459365684405999</v>
+      </c>
+      <c r="D304" t="b">
+        <v>0</v>
+      </c>
+      <c r="E304" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>405,03</t>
-        </is>
+      <c r="B305" t="n">
+        <v>405.03</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-0.5768569885610586</v>
+      </c>
+      <c r="D305" t="b">
+        <v>0</v>
+      </c>
+      <c r="E305" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>403,14</t>
-        </is>
+      <c r="B306" t="n">
+        <v>403.14</v>
+      </c>
+      <c r="C306" t="n">
+        <v>-0.4666321013258257</v>
+      </c>
+      <c r="D306" t="b">
+        <v>0</v>
+      </c>
+      <c r="E306" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>402,35</t>
-        </is>
+      <c r="B307" t="n">
+        <v>402.35</v>
+      </c>
+      <c r="C307" t="n">
+        <v>-0.1959617006498937</v>
+      </c>
+      <c r="D307" t="b">
+        <v>0</v>
+      </c>
+      <c r="E307" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>403,87</t>
-        </is>
+      <c r="B308" t="n">
+        <v>403.87</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.3777805393314182</v>
+      </c>
+      <c r="D308" t="b">
+        <v>1</v>
+      </c>
+      <c r="E308" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>405,67</t>
-        </is>
+      <c r="B309" t="n">
+        <v>405.67</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.4456879689008764</v>
+      </c>
+      <c r="D309" t="b">
+        <v>1</v>
+      </c>
+      <c r="E309" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>407,6</t>
-        </is>
+      <c r="B310" t="n">
+        <v>407.6</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.4757561564818769</v>
+      </c>
+      <c r="D310" t="b">
+        <v>1</v>
+      </c>
+      <c r="E310" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>409,48</t>
-        </is>
+      <c r="B311" t="n">
+        <v>409.48</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.4612365063787927</v>
+      </c>
+      <c r="D311" t="b">
+        <v>1</v>
+      </c>
+      <c r="E311" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>410,07</t>
-        </is>
+      <c r="B312" t="n">
+        <v>410.07</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.1440851812054333</v>
+      </c>
+      <c r="D312" t="b">
+        <v>1</v>
+      </c>
+      <c r="E312" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>410,2</t>
-        </is>
+      <c r="B313" t="n">
+        <v>410.2</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.03170190455288324</v>
+      </c>
+      <c r="D313" t="b">
+        <v>1</v>
+      </c>
+      <c r="E313" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>411,23</t>
-        </is>
+      <c r="B314" t="n">
+        <v>411.23</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.2510970258410516</v>
+      </c>
+      <c r="D314" t="b">
+        <v>1</v>
+      </c>
+      <c r="E314" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>410,97</t>
-        </is>
+      <c r="B315" t="n">
+        <v>410.97</v>
+      </c>
+      <c r="C315" t="n">
+        <v>-0.06322495926853744</v>
+      </c>
+      <c r="D315" t="b">
+        <v>0</v>
+      </c>
+      <c r="E315" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>408,41</t>
-        </is>
+      <c r="B316" t="n">
+        <v>408.41</v>
+      </c>
+      <c r="C316" t="n">
+        <v>-0.6229165145874349</v>
+      </c>
+      <c r="D316" t="b">
+        <v>0</v>
+      </c>
+      <c r="E316" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>406,27</t>
-        </is>
+      <c r="B317" t="n">
+        <v>406.27</v>
+      </c>
+      <c r="C317" t="n">
+        <v>-0.523983252124105</v>
+      </c>
+      <c r="D317" t="b">
+        <v>0</v>
+      </c>
+      <c r="E317" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>404,57</t>
-        </is>
+      <c r="B318" t="n">
+        <v>404.57</v>
+      </c>
+      <c r="C318" t="n">
+        <v>-0.4184409382922638</v>
+      </c>
+      <c r="D318" t="b">
+        <v>0</v>
+      </c>
+      <c r="E318" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>404,35</t>
-        </is>
+      <c r="B319" t="n">
+        <v>404.35</v>
+      </c>
+      <c r="C319" t="n">
+        <v>-0.0543787230886994</v>
+      </c>
+      <c r="D319" t="b">
+        <v>0</v>
+      </c>
+      <c r="E319" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>406,86</t>
-        </is>
+      <c r="B320" t="n">
+        <v>406.86</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.6207493508099349</v>
+      </c>
+      <c r="D320" t="b">
+        <v>1</v>
+      </c>
+      <c r="E320" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>408,28</t>
-        </is>
+      <c r="B321" t="n">
+        <v>408.28</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.3490144029887343</v>
+      </c>
+      <c r="D321" t="b">
+        <v>1</v>
+      </c>
+      <c r="E321" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>409,35</t>
-        </is>
+      <c r="B322" t="n">
+        <v>409.35</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.2620750465367028</v>
+      </c>
+      <c r="D322" t="b">
+        <v>1</v>
+      </c>
+      <c r="E322" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>411,14</t>
-        </is>
+      <c r="B323" t="n">
+        <v>411.14</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.4372786124343442</v>
+      </c>
+      <c r="D323" t="b">
+        <v>1</v>
+      </c>
+      <c r="E323" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>411,73</t>
-        </is>
+      <c r="B324" t="n">
+        <v>411.73</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.1435034294887449</v>
+      </c>
+      <c r="D324" t="b">
+        <v>1</v>
+      </c>
+      <c r="E324" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>412,7</t>
-        </is>
+      <c r="B325" t="n">
+        <v>412.7</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.2355912855511955</v>
+      </c>
+      <c r="D325" t="b">
+        <v>1</v>
+      </c>
+      <c r="E325" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>413,98</t>
-        </is>
+      <c r="B326" t="n">
+        <v>413.98</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.3101526532590437</v>
+      </c>
+      <c r="D326" t="b">
+        <v>1</v>
+      </c>
+      <c r="E326" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>413,93</t>
-        </is>
+      <c r="B327" t="n">
+        <v>413.93</v>
+      </c>
+      <c r="C327" t="n">
+        <v>-0.01207787815836747</v>
+      </c>
+      <c r="D327" t="b">
+        <v>0</v>
+      </c>
+      <c r="E327" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>412,76</t>
-        </is>
+      <c r="B328" t="n">
+        <v>412.76</v>
+      </c>
+      <c r="C328" t="n">
+        <v>-0.2826564878119497</v>
+      </c>
+      <c r="D328" t="b">
+        <v>0</v>
+      </c>
+      <c r="E328" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>410,69</t>
-        </is>
+      <c r="B329" t="n">
+        <v>410.69</v>
+      </c>
+      <c r="C329" t="n">
+        <v>-0.5015020835352213</v>
+      </c>
+      <c r="D329" t="b">
+        <v>0</v>
+      </c>
+      <c r="E329" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>408,7</t>
-        </is>
+      <c r="B330" t="n">
+        <v>408.7</v>
+      </c>
+      <c r="C330" t="n">
+        <v>-0.4845503908057158</v>
+      </c>
+      <c r="D330" t="b">
+        <v>0</v>
+      </c>
+      <c r="E330" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>407,53</t>
-        </is>
+      <c r="B331" t="n">
+        <v>407.53</v>
+      </c>
+      <c r="C331" t="n">
+        <v>-0.2862735502813796</v>
+      </c>
+      <c r="D331" t="b">
+        <v>0</v>
+      </c>
+      <c r="E331" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>408,12</t>
-        </is>
+      <c r="B332" t="n">
+        <v>408.12</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.1447746178195652</v>
+      </c>
+      <c r="D332" t="b">
+        <v>1</v>
+      </c>
+      <c r="E332" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>410,1</t>
-        </is>
+      <c r="B333" t="n">
+        <v>410.1</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.4851514260511669</v>
+      </c>
+      <c r="D333" t="b">
+        <v>1</v>
+      </c>
+      <c r="E333" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>412,13</t>
-        </is>
+      <c r="B334" t="n">
+        <v>412.13</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.495001219214819</v>
+      </c>
+      <c r="D334" t="b">
+        <v>1</v>
+      </c>
+      <c r="E334" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>413,81</t>
-        </is>
+      <c r="B335" t="n">
+        <v>413.81</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.4076383665348349</v>
+      </c>
+      <c r="D335" t="b">
+        <v>1</v>
+      </c>
+      <c r="E335" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>415,2</t>
-        </is>
+      <c r="B336" t="n">
+        <v>415.2</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.3359029506295075</v>
+      </c>
+      <c r="D336" t="b">
+        <v>1</v>
+      </c>
+      <c r="E336" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>416,27</t>
-        </is>
+      <c r="B337" t="n">
+        <v>416.27</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.2577071290944088</v>
+      </c>
+      <c r="D337" t="b">
+        <v>1</v>
+      </c>
+      <c r="E337" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>416,69</t>
-        </is>
+      <c r="B338" t="n">
+        <v>416.69</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1008960530425096</v>
+      </c>
+      <c r="D338" t="b">
+        <v>1</v>
+      </c>
+      <c r="E338" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>415,91</t>
-        </is>
+      <c r="B339" t="n">
+        <v>415.91</v>
+      </c>
+      <c r="C339" t="n">
+        <v>-0.1871895173870208</v>
+      </c>
+      <c r="D339" t="b">
+        <v>0</v>
+      </c>
+      <c r="E339" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>414,93</t>
-        </is>
+      <c r="B340" t="n">
+        <v>414.93</v>
+      </c>
+      <c r="C340" t="n">
+        <v>-0.2356279002668882</v>
+      </c>
+      <c r="D340" t="b">
+        <v>0</v>
+      </c>
+      <c r="E340" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>413,3</t>
-        </is>
+      <c r="B341" t="n">
+        <v>413.3</v>
+      </c>
+      <c r="C341" t="n">
+        <v>-0.3928373460583723</v>
+      </c>
+      <c r="D341" t="b">
+        <v>0</v>
+      </c>
+      <c r="E341" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>410,44</t>
-        </is>
+      <c r="B342" t="n">
+        <v>410.44</v>
+      </c>
+      <c r="C342" t="n">
+        <v>-0.6919912896201308</v>
+      </c>
+      <c r="D342" t="b">
+        <v>0</v>
+      </c>
+      <c r="E342" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>409,34</t>
-        </is>
+      <c r="B343" t="n">
+        <v>409.34</v>
+      </c>
+      <c r="C343" t="n">
+        <v>-0.268005067732191</v>
+      </c>
+      <c r="D343" t="b">
+        <v>0</v>
+      </c>
+      <c r="E343" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>410,79</t>
-        </is>
+      <c r="B344" t="n">
+        <v>410.79</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.3542287584892945</v>
+      </c>
+      <c r="D344" t="b">
+        <v>1</v>
+      </c>
+      <c r="E344" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>413,52</t>
-        </is>
+      <c r="B345" t="n">
+        <v>413.52</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6645731395603427</v>
+      </c>
+      <c r="D345" t="b">
+        <v>1</v>
+      </c>
+      <c r="E345" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>415,51</t>
-        </is>
+      <c r="B346" t="n">
+        <v>415.51</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4812342812923198</v>
+      </c>
+      <c r="D346" t="b">
+        <v>1</v>
+      </c>
+      <c r="E346" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
